--- a/resultados/Venda de Drone/Com SPAD 3 Drones/vel40/field_36ha_100ha_2%_12m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 3 Drones/vel40/field_36ha_100ha_2%_12m_0_LM/Planilha_Unificada.xlsx
@@ -2102,28 +2102,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>45.48598944027914</v>
+        <v>66.22961699486889</v>
       </c>
       <c r="AB2" t="n">
-        <v>62.23593745239823</v>
+        <v>90.61828381683375</v>
       </c>
       <c r="AC2" t="n">
-        <v>56.29622693064109</v>
+        <v>81.96980199293722</v>
       </c>
       <c r="AD2" t="n">
-        <v>45485.98944027914</v>
+        <v>66229.61699486889</v>
       </c>
       <c r="AE2" t="n">
-        <v>62235.93745239823</v>
+        <v>90618.28381683375</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.874132577825156e-06</v>
+        <v>1.162106219115768e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.947530864197531</v>
       </c>
       <c r="AH2" t="n">
-        <v>56296.22693064109</v>
+        <v>81969.80199293722</v>
       </c>
     </row>
     <row r="3">
@@ -2208,28 +2208,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>40.80265243134949</v>
+        <v>51.13188528991285</v>
       </c>
       <c r="AB3" t="n">
-        <v>55.8279891423806</v>
+        <v>69.96090123320894</v>
       </c>
       <c r="AC3" t="n">
-        <v>50.49984421381577</v>
+        <v>63.28393101026845</v>
       </c>
       <c r="AD3" t="n">
-        <v>40802.65243134949</v>
+        <v>51131.88528991285</v>
       </c>
       <c r="AE3" t="n">
-        <v>55827.9891423806</v>
+        <v>69960.90123320895</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.576358760974891e-06</v>
+        <v>1.44987600117689e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.361111111111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>50499.84421381577</v>
+        <v>63283.93101026845</v>
       </c>
     </row>
     <row r="4">
@@ -2314,28 +2314,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>40.04754264481173</v>
+        <v>50.37677550337498</v>
       </c>
       <c r="AB4" t="n">
-        <v>54.79481461935198</v>
+        <v>68.92772671017569</v>
       </c>
       <c r="AC4" t="n">
-        <v>49.56527441719237</v>
+        <v>62.3493612136436</v>
       </c>
       <c r="AD4" t="n">
-        <v>40047.54264481174</v>
+        <v>50376.77550337498</v>
       </c>
       <c r="AE4" t="n">
-        <v>54794.81461935198</v>
+        <v>68927.72671017569</v>
       </c>
       <c r="AF4" t="n">
-        <v>8.895145411959678e-06</v>
+        <v>1.503768466224126e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>3</v>
+        <v>2.276234567901235</v>
       </c>
       <c r="AH4" t="n">
-        <v>49565.27441719237</v>
+        <v>62349.36121364361</v>
       </c>
     </row>
     <row r="5">
@@ -2420,28 +2420,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>38.93524689868895</v>
+        <v>49.26447975725202</v>
       </c>
       <c r="AB5" t="n">
-        <v>53.2729225084891</v>
+        <v>67.40583459930596</v>
       </c>
       <c r="AC5" t="n">
-        <v>48.18862955339672</v>
+        <v>60.97271634984581</v>
       </c>
       <c r="AD5" t="n">
-        <v>38935.24689868895</v>
+        <v>49264.47975725202</v>
       </c>
       <c r="AE5" t="n">
-        <v>53272.92250848909</v>
+        <v>67405.83459930596</v>
       </c>
       <c r="AF5" t="n">
-        <v>9.324640837289756e-06</v>
+        <v>1.576376798869314e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>3</v>
+        <v>2.172067901234568</v>
       </c>
       <c r="AH5" t="n">
-        <v>48188.62955339672</v>
+        <v>60972.71634984581</v>
       </c>
     </row>
     <row r="6">
@@ -2526,28 +2526,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>38.97544861440359</v>
+        <v>49.30468147296666</v>
       </c>
       <c r="AB6" t="n">
-        <v>53.32792826950413</v>
+        <v>67.46084036032124</v>
       </c>
       <c r="AC6" t="n">
-        <v>48.23838564178172</v>
+        <v>61.02247243823088</v>
       </c>
       <c r="AD6" t="n">
-        <v>38975.44861440359</v>
+        <v>49304.68147296667</v>
       </c>
       <c r="AE6" t="n">
-        <v>53327.92826950413</v>
+        <v>67460.84036032124</v>
       </c>
       <c r="AF6" t="n">
-        <v>9.321437215261738e-06</v>
+        <v>1.575835210670322e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>3</v>
+        <v>2.172067901234568</v>
       </c>
       <c r="AH6" t="n">
-        <v>48238.38564178172</v>
+        <v>61022.47243823088</v>
       </c>
     </row>
   </sheetData>
@@ -2823,28 +2823,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>40.92380669423679</v>
+        <v>51.09971539267168</v>
       </c>
       <c r="AB2" t="n">
-        <v>55.99375774981106</v>
+        <v>69.9168849605679</v>
       </c>
       <c r="AC2" t="n">
-        <v>50.64979209801125</v>
+        <v>63.24411558891102</v>
       </c>
       <c r="AD2" t="n">
-        <v>40923.80669423679</v>
+        <v>51099.71539267169</v>
       </c>
       <c r="AE2" t="n">
-        <v>55993.75774981106</v>
+        <v>69916.8849605679</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.089451741120165e-06</v>
+        <v>1.400923978074036e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.592592592592593</v>
       </c>
       <c r="AH2" t="n">
-        <v>50649.79209801125</v>
+        <v>63244.11558891102</v>
       </c>
     </row>
     <row r="3">
@@ -2929,28 +2929,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>38.41698211060184</v>
+        <v>48.42229860844414</v>
       </c>
       <c r="AB3" t="n">
-        <v>52.56380976120297</v>
+        <v>66.25352519709753</v>
       </c>
       <c r="AC3" t="n">
-        <v>47.54719353146348</v>
+        <v>59.93038173970738</v>
       </c>
       <c r="AD3" t="n">
-        <v>38416.98211060184</v>
+        <v>48422.29860844414</v>
       </c>
       <c r="AE3" t="n">
-        <v>52563.80976120297</v>
+        <v>66253.52519709754</v>
       </c>
       <c r="AF3" t="n">
-        <v>9.360871723159267e-06</v>
+        <v>1.621107347237e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.237654320987654</v>
       </c>
       <c r="AH3" t="n">
-        <v>47547.19353146348</v>
+        <v>59930.38173970738</v>
       </c>
     </row>
     <row r="4">
@@ -3035,28 +3035,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>37.17124720608006</v>
+        <v>47.17656370392217</v>
       </c>
       <c r="AB4" t="n">
-        <v>50.85934030689927</v>
+        <v>64.54905574278617</v>
       </c>
       <c r="AC4" t="n">
-        <v>46.00539624963555</v>
+        <v>58.38858445787705</v>
       </c>
       <c r="AD4" t="n">
-        <v>37171.24720608006</v>
+        <v>47176.56370392217</v>
       </c>
       <c r="AE4" t="n">
-        <v>50859.34030689927</v>
+        <v>64549.05574278617</v>
       </c>
       <c r="AF4" t="n">
-        <v>9.987563009921979e-06</v>
+        <v>1.729637180725367e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>3</v>
+        <v>2.098765432098765</v>
       </c>
       <c r="AH4" t="n">
-        <v>46005.39624963555</v>
+        <v>58388.58445787705</v>
       </c>
     </row>
   </sheetData>
@@ -3332,28 +3332,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>32.92746511039345</v>
+        <v>41.9575793770867</v>
       </c>
       <c r="AB2" t="n">
-        <v>45.05281042115639</v>
+        <v>57.40821114131147</v>
       </c>
       <c r="AC2" t="n">
-        <v>40.7530334266548</v>
+        <v>51.92925204302889</v>
       </c>
       <c r="AD2" t="n">
-        <v>32927.46511039345</v>
+        <v>41957.5793770867</v>
       </c>
       <c r="AE2" t="n">
-        <v>45052.81042115638</v>
+        <v>57408.21114131147</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.133096246438425e-05</v>
+        <v>2.144061928924989e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.064043209876543</v>
       </c>
       <c r="AH2" t="n">
-        <v>40753.0334266548</v>
+        <v>51929.25204302889</v>
       </c>
     </row>
     <row r="3">
@@ -3438,28 +3438,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>32.93901534729903</v>
+        <v>41.96912961399228</v>
       </c>
       <c r="AB3" t="n">
-        <v>45.06861396485102</v>
+        <v>57.42401468500609</v>
       </c>
       <c r="AC3" t="n">
-        <v>40.76732870231967</v>
+        <v>51.94354731869375</v>
       </c>
       <c r="AD3" t="n">
-        <v>32939.01534729904</v>
+        <v>41969.12961399228</v>
       </c>
       <c r="AE3" t="n">
-        <v>45068.61396485101</v>
+        <v>57424.01468500609</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.134157163921688e-05</v>
+        <v>2.146069413101859e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.064043209876543</v>
       </c>
       <c r="AH3" t="n">
-        <v>40767.32870231968</v>
+        <v>51943.54731869375</v>
       </c>
     </row>
   </sheetData>
@@ -3735,28 +3735,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>35.77642925650612</v>
+        <v>45.18780868946035</v>
       </c>
       <c r="AB2" t="n">
-        <v>48.95088885327643</v>
+        <v>61.82795339432186</v>
       </c>
       <c r="AC2" t="n">
-        <v>44.27908472421235</v>
+        <v>55.92718029845818</v>
       </c>
       <c r="AD2" t="n">
-        <v>35776.42925650612</v>
+        <v>45187.80868946035</v>
       </c>
       <c r="AE2" t="n">
-        <v>48950.88885327643</v>
+        <v>61827.95339432186</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.995653077561168e-06</v>
+        <v>1.820990910355764e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.237654320987654</v>
       </c>
       <c r="AH2" t="n">
-        <v>44279.08472421236</v>
+        <v>55927.18029845818</v>
       </c>
     </row>
     <row r="3">
@@ -3841,28 +3841,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>34.47530431184362</v>
+        <v>43.88668374479765</v>
       </c>
       <c r="AB3" t="n">
-        <v>47.17063230241646</v>
+        <v>60.04769684345389</v>
       </c>
       <c r="AC3" t="n">
-        <v>42.6687333599554</v>
+        <v>54.31682893419872</v>
       </c>
       <c r="AD3" t="n">
-        <v>34475.30431184363</v>
+        <v>43886.68374479765</v>
       </c>
       <c r="AE3" t="n">
-        <v>47170.63230241646</v>
+        <v>60047.69684345389</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.093195534555469e-05</v>
+        <v>1.99156484946027e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.048611111111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>42668.7333599554</v>
+        <v>54316.82893419872</v>
       </c>
     </row>
   </sheetData>
@@ -4138,28 +4138,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>31.68978666274585</v>
+        <v>40.40718528379111</v>
       </c>
       <c r="AB2" t="n">
-        <v>43.35936416657367</v>
+        <v>55.28689354431463</v>
       </c>
       <c r="AC2" t="n">
-        <v>39.22120730583768</v>
+        <v>50.01039002019515</v>
       </c>
       <c r="AD2" t="n">
-        <v>31689.78666274585</v>
+        <v>40407.18528379111</v>
       </c>
       <c r="AE2" t="n">
-        <v>43359.36416657367</v>
+        <v>55286.89354431463</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.153928751786623e-05</v>
+        <v>2.261328557118297e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.106481481481481</v>
       </c>
       <c r="AH2" t="n">
-        <v>39221.20730583768</v>
+        <v>50010.39002019515</v>
       </c>
     </row>
   </sheetData>
@@ -4435,28 +4435,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>41.74362718254555</v>
+        <v>62.00969930800925</v>
       </c>
       <c r="AB2" t="n">
-        <v>57.11547230983703</v>
+        <v>84.84440626804611</v>
       </c>
       <c r="AC2" t="n">
-        <v>51.66445179476796</v>
+        <v>76.74697521371601</v>
       </c>
       <c r="AD2" t="n">
-        <v>41743.62718254556</v>
+        <v>62009.69930800924</v>
       </c>
       <c r="AE2" t="n">
-        <v>57115.47230983703</v>
+        <v>84844.40626804612</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.848906962947937e-06</v>
+        <v>1.350389692751414e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.646604938271605</v>
       </c>
       <c r="AH2" t="n">
-        <v>51664.45179476796</v>
+        <v>76746.97521371601</v>
       </c>
     </row>
     <row r="3">
@@ -4541,28 +4541,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>39.41668083798547</v>
+        <v>49.50713598198389</v>
       </c>
       <c r="AB3" t="n">
-        <v>53.93164166359782</v>
+        <v>67.73784755122102</v>
       </c>
       <c r="AC3" t="n">
-        <v>48.78448147686198</v>
+        <v>61.27304245161331</v>
       </c>
       <c r="AD3" t="n">
-        <v>39416.68083798548</v>
+        <v>49507.13598198389</v>
       </c>
       <c r="AE3" t="n">
-        <v>53931.64166359782</v>
+        <v>67737.84755122103</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.974409790215862e-06</v>
+        <v>1.544030339057959e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.314814814814815</v>
       </c>
       <c r="AH3" t="n">
-        <v>48784.48147686198</v>
+        <v>61273.04245161331</v>
       </c>
     </row>
     <row r="4">
@@ -4647,28 +4647,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>37.70018706069826</v>
+        <v>47.7906422046964</v>
       </c>
       <c r="AB4" t="n">
-        <v>51.58305915116387</v>
+        <v>65.38926503877653</v>
       </c>
       <c r="AC4" t="n">
-        <v>46.66004438315147</v>
+        <v>59.14860535789951</v>
       </c>
       <c r="AD4" t="n">
-        <v>37700.18706069826</v>
+        <v>47790.64220469641</v>
       </c>
       <c r="AE4" t="n">
-        <v>51583.05915116386</v>
+        <v>65389.26503877652</v>
       </c>
       <c r="AF4" t="n">
-        <v>9.779501819307773e-06</v>
+        <v>1.682544909677065e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>3</v>
+        <v>2.125771604938271</v>
       </c>
       <c r="AH4" t="n">
-        <v>46660.04438315147</v>
+        <v>59148.60535789951</v>
       </c>
     </row>
     <row r="5">
@@ -4753,28 +4753,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>37.67421837212254</v>
+        <v>47.76467351612067</v>
       </c>
       <c r="AB5" t="n">
-        <v>51.54752764579705</v>
+        <v>65.35373353340954</v>
       </c>
       <c r="AC5" t="n">
-        <v>46.62790395478797</v>
+        <v>59.11646492953596</v>
       </c>
       <c r="AD5" t="n">
-        <v>37674.21837212254</v>
+        <v>47764.67351612067</v>
       </c>
       <c r="AE5" t="n">
-        <v>51547.52764579705</v>
+        <v>65353.73353340954</v>
       </c>
       <c r="AF5" t="n">
-        <v>9.78790109413813e-06</v>
+        <v>1.683989989127114e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>3</v>
+        <v>2.121913580246913</v>
       </c>
       <c r="AH5" t="n">
-        <v>46627.90395478797</v>
+        <v>59116.46492953596</v>
       </c>
     </row>
   </sheetData>
@@ -5050,28 +5050,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>30.91953332858274</v>
+        <v>39.45175746548199</v>
       </c>
       <c r="AB2" t="n">
-        <v>42.30546957359797</v>
+        <v>53.97963505280992</v>
       </c>
       <c r="AC2" t="n">
-        <v>38.26789493366209</v>
+        <v>48.82789444436694</v>
       </c>
       <c r="AD2" t="n">
-        <v>30919.53332858274</v>
+        <v>39451.75746548199</v>
       </c>
       <c r="AE2" t="n">
-        <v>42305.46957359798</v>
+        <v>53979.63505280992</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.164491611818913e-05</v>
+        <v>2.334410193103583e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.133487654320988</v>
       </c>
       <c r="AH2" t="n">
-        <v>38267.89493366209</v>
+        <v>48827.89444436694</v>
       </c>
     </row>
   </sheetData>
@@ -5347,28 +5347,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>38.68534758872613</v>
+        <v>48.4143479870233</v>
       </c>
       <c r="AB2" t="n">
-        <v>52.93099924782016</v>
+        <v>66.24264680611289</v>
       </c>
       <c r="AC2" t="n">
-        <v>47.8793389688327</v>
+        <v>59.92054156709039</v>
       </c>
       <c r="AD2" t="n">
-        <v>38685.34758872613</v>
+        <v>48414.3479870233</v>
       </c>
       <c r="AE2" t="n">
-        <v>52930.99924782016</v>
+        <v>66242.64680611288</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.825609812491032e-06</v>
+        <v>1.563081078162626e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.445987654320988</v>
       </c>
       <c r="AH2" t="n">
-        <v>47879.3389688327</v>
+        <v>59920.54156709039</v>
       </c>
     </row>
     <row r="3">
@@ -5453,28 +5453,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>35.9378278335158</v>
+        <v>45.66682823181254</v>
       </c>
       <c r="AB3" t="n">
-        <v>49.17172150674268</v>
+        <v>62.48336906501851</v>
       </c>
       <c r="AC3" t="n">
-        <v>44.47884141917303</v>
+        <v>56.52004401742543</v>
       </c>
       <c r="AD3" t="n">
-        <v>35937.8278335158</v>
+        <v>45666.82823181253</v>
       </c>
       <c r="AE3" t="n">
-        <v>49171.72150674269</v>
+        <v>62483.36906501852</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.042552342574313e-05</v>
+        <v>1.846437667531639e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.07175925925926</v>
       </c>
       <c r="AH3" t="n">
-        <v>44478.84141917303</v>
+        <v>56520.04401742543</v>
       </c>
     </row>
     <row r="4">
@@ -5559,28 +5559,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>35.87560096807444</v>
+        <v>45.60460136637116</v>
       </c>
       <c r="AB4" t="n">
-        <v>49.08657996419068</v>
+        <v>62.39822752246613</v>
       </c>
       <c r="AC4" t="n">
-        <v>44.40182566594503</v>
+        <v>56.4430282641973</v>
       </c>
       <c r="AD4" t="n">
-        <v>35875.60096807445</v>
+        <v>45604.60136637116</v>
       </c>
       <c r="AE4" t="n">
-        <v>49086.57996419069</v>
+        <v>62398.22752246613</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.044769002678042e-05</v>
+        <v>1.850363537288484e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>3</v>
+        <v>2.067901234567902</v>
       </c>
       <c r="AH4" t="n">
-        <v>44401.82566594503</v>
+        <v>56443.0282641973</v>
       </c>
     </row>
   </sheetData>
@@ -5856,28 +5856,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>39.95815280841492</v>
+        <v>50.04568535681518</v>
       </c>
       <c r="AB2" t="n">
-        <v>54.67250750159321</v>
+        <v>68.47471456498641</v>
       </c>
       <c r="AC2" t="n">
-        <v>49.45464011909301</v>
+        <v>61.93958391178452</v>
       </c>
       <c r="AD2" t="n">
-        <v>39958.15280841492</v>
+        <v>50045.68535681519</v>
       </c>
       <c r="AE2" t="n">
-        <v>54672.50750159321</v>
+        <v>68474.71456498641</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.419784952474383e-06</v>
+        <v>1.468336974819241e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.511574074074074</v>
       </c>
       <c r="AH2" t="n">
-        <v>49454.640119093</v>
+        <v>61939.58391178452</v>
       </c>
     </row>
     <row r="3">
@@ -5962,28 +5962,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>37.54595054019973</v>
+        <v>47.4628908880074</v>
       </c>
       <c r="AB3" t="n">
-        <v>51.37202593938374</v>
+        <v>64.94082122791525</v>
       </c>
       <c r="AC3" t="n">
-        <v>46.46915188491602</v>
+        <v>58.74296039495184</v>
       </c>
       <c r="AD3" t="n">
-        <v>37545.95054019973</v>
+        <v>47462.8908880074</v>
       </c>
       <c r="AE3" t="n">
-        <v>51372.02593938374</v>
+        <v>64940.82122791526</v>
       </c>
       <c r="AF3" t="n">
-        <v>9.721051369327175e-06</v>
+        <v>1.69526647536355e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.175925925925926</v>
       </c>
       <c r="AH3" t="n">
-        <v>46469.15188491602</v>
+        <v>58742.96039495184</v>
       </c>
     </row>
     <row r="4">
@@ -6068,28 +6068,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>36.94052445119461</v>
+        <v>46.8574647990022</v>
       </c>
       <c r="AB4" t="n">
-        <v>50.54365525489697</v>
+        <v>64.11245054342476</v>
       </c>
       <c r="AC4" t="n">
-        <v>45.71983973592864</v>
+        <v>57.9936482459633</v>
       </c>
       <c r="AD4" t="n">
-        <v>36940.52445119461</v>
+        <v>46857.4647990022</v>
       </c>
       <c r="AE4" t="n">
-        <v>50543.65525489697</v>
+        <v>64112.45054342476</v>
       </c>
       <c r="AF4" t="n">
-        <v>9.995663227591611e-06</v>
+        <v>1.74315638555597e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>3</v>
+        <v>2.118055555555555</v>
       </c>
       <c r="AH4" t="n">
-        <v>45719.83973592865</v>
+        <v>57993.6482459633</v>
       </c>
     </row>
   </sheetData>
@@ -6365,28 +6365,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>44.14329740958382</v>
+        <v>64.73280720271065</v>
       </c>
       <c r="AB2" t="n">
-        <v>60.39880698061004</v>
+        <v>88.57028262461631</v>
       </c>
       <c r="AC2" t="n">
-        <v>54.63442961265098</v>
+        <v>80.11725916011665</v>
       </c>
       <c r="AD2" t="n">
-        <v>44143.29740958381</v>
+        <v>64732.80720271064</v>
       </c>
       <c r="AE2" t="n">
-        <v>60398.80698061004</v>
+        <v>88570.28262461632</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.18805845076101e-06</v>
+        <v>1.221922296780926e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.839506172839506</v>
       </c>
       <c r="AH2" t="n">
-        <v>54634.42961265097</v>
+        <v>80117.25916011665</v>
       </c>
     </row>
     <row r="3">
@@ -6471,28 +6471,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>40.05650981387932</v>
+        <v>50.30868379171111</v>
       </c>
       <c r="AB3" t="n">
-        <v>54.80708389567379</v>
+        <v>68.83456062628292</v>
       </c>
       <c r="AC3" t="n">
-        <v>49.5763727310021</v>
+        <v>62.26508677003812</v>
       </c>
       <c r="AD3" t="n">
-        <v>40056.50981387933</v>
+        <v>50308.68379171111</v>
       </c>
       <c r="AE3" t="n">
-        <v>54807.08389567379</v>
+        <v>68834.56062628292</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.833696200980898e-06</v>
+        <v>1.501669807627223e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.310956790123457</v>
       </c>
       <c r="AH3" t="n">
-        <v>49576.37273100211</v>
+        <v>62265.08677003812</v>
       </c>
     </row>
     <row r="4">
@@ -6577,28 +6577,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>39.13017687341964</v>
+        <v>49.38235085125129</v>
       </c>
       <c r="AB4" t="n">
-        <v>53.5396342996179</v>
+        <v>67.56711103022134</v>
       </c>
       <c r="AC4" t="n">
-        <v>48.42988674551334</v>
+        <v>61.11860078454756</v>
       </c>
       <c r="AD4" t="n">
-        <v>39130.17687341964</v>
+        <v>49382.35085125129</v>
       </c>
       <c r="AE4" t="n">
-        <v>53539.6342996179</v>
+        <v>67567.11103022133</v>
       </c>
       <c r="AF4" t="n">
-        <v>9.24772608081329e-06</v>
+        <v>1.572052143158616e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>3</v>
+        <v>2.20679012345679</v>
       </c>
       <c r="AH4" t="n">
-        <v>48429.88674551334</v>
+        <v>61118.60078454756</v>
       </c>
     </row>
     <row r="5">
@@ -6683,28 +6683,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>38.53592989824919</v>
+        <v>48.78810387608073</v>
       </c>
       <c r="AB5" t="n">
-        <v>52.72655937186732</v>
+        <v>66.7540361024671</v>
       </c>
       <c r="AC5" t="n">
-        <v>47.69441054770703</v>
+        <v>60.38312458674011</v>
       </c>
       <c r="AD5" t="n">
-        <v>38535.92989824919</v>
+        <v>48788.10387608074</v>
       </c>
       <c r="AE5" t="n">
-        <v>52726.55937186732</v>
+        <v>66754.0361024671</v>
       </c>
       <c r="AF5" t="n">
-        <v>9.476736854391467e-06</v>
+        <v>1.610982456866429e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>3</v>
+        <v>2.156635802469136</v>
       </c>
       <c r="AH5" t="n">
-        <v>47694.41054770703</v>
+        <v>60383.12458674011</v>
       </c>
     </row>
   </sheetData>
@@ -6980,28 +6980,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>36.8601493512213</v>
+        <v>46.38304436635723</v>
       </c>
       <c r="AB2" t="n">
-        <v>50.43368249721486</v>
+        <v>63.46332757752791</v>
       </c>
       <c r="AC2" t="n">
-        <v>45.62036262389167</v>
+        <v>57.40647666488164</v>
       </c>
       <c r="AD2" t="n">
-        <v>36860.14935122131</v>
+        <v>46383.04436635723</v>
       </c>
       <c r="AE2" t="n">
-        <v>50433.68249721486</v>
+        <v>63463.32757752791</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.511692967759749e-06</v>
+        <v>1.715183326734749e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.322530864197531</v>
       </c>
       <c r="AH2" t="n">
-        <v>45620.36262389166</v>
+        <v>57406.47666488164</v>
       </c>
     </row>
     <row r="3">
@@ -7086,28 +7086,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>34.94437243413698</v>
+        <v>44.4672674492726</v>
       </c>
       <c r="AB3" t="n">
-        <v>47.81243200116018</v>
+        <v>60.84207708146145</v>
       </c>
       <c r="AC3" t="n">
-        <v>43.24928059622446</v>
+        <v>55.03539463721076</v>
       </c>
       <c r="AD3" t="n">
-        <v>34944.37243413698</v>
+        <v>44467.26744927261</v>
       </c>
       <c r="AE3" t="n">
-        <v>47812.43200116018</v>
+        <v>60842.07708146145</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.077875800321643e-05</v>
+        <v>1.943665136447297e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.048611111111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>43249.28059622446</v>
+        <v>55035.39463721076</v>
       </c>
     </row>
   </sheetData>
@@ -7383,28 +7383,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>33.66792793795162</v>
+        <v>42.83439709140931</v>
       </c>
       <c r="AB2" t="n">
-        <v>46.06594432873102</v>
+        <v>58.60791182067796</v>
       </c>
       <c r="AC2" t="n">
-        <v>41.66947525603589</v>
+        <v>53.01445497324508</v>
       </c>
       <c r="AD2" t="n">
-        <v>33667.92793795162</v>
+        <v>42834.39709140931</v>
       </c>
       <c r="AE2" t="n">
-        <v>46065.94432873102</v>
+        <v>58607.91182067795</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.102780168102968e-05</v>
+        <v>2.057435298007915e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.087191358024691</v>
       </c>
       <c r="AH2" t="n">
-        <v>41669.47525603589</v>
+        <v>53014.45497324508</v>
       </c>
     </row>
     <row r="3">
@@ -7489,28 +7489,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>33.44003804026823</v>
+        <v>42.60650719372588</v>
       </c>
       <c r="AB3" t="n">
-        <v>45.75413531692939</v>
+        <v>58.29610280887491</v>
       </c>
       <c r="AC3" t="n">
-        <v>41.38742485869298</v>
+        <v>52.73240457590173</v>
       </c>
       <c r="AD3" t="n">
-        <v>33440.03804026823</v>
+        <v>42606.50719372588</v>
       </c>
       <c r="AE3" t="n">
-        <v>45754.13531692939</v>
+        <v>58296.10280887492</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.126261346243606e-05</v>
+        <v>2.101243670830276e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.044753086419753</v>
       </c>
       <c r="AH3" t="n">
-        <v>41387.42485869298</v>
+        <v>52732.40457590173</v>
       </c>
     </row>
   </sheetData>
@@ -12719,28 +12719,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>32.26984286819515</v>
+        <v>41.15141416866577</v>
       </c>
       <c r="AB2" t="n">
-        <v>44.15302265713929</v>
+        <v>56.30518033765636</v>
       </c>
       <c r="AC2" t="n">
-        <v>39.93912014397276</v>
+        <v>50.93149295115788</v>
       </c>
       <c r="AD2" t="n">
-        <v>32269.84286819515</v>
+        <v>41151.41416866577</v>
       </c>
       <c r="AE2" t="n">
-        <v>44153.02265713929</v>
+        <v>56305.18033765636</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.154111468701231e-05</v>
+        <v>2.21939915292948e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.064043209876543</v>
       </c>
       <c r="AH2" t="n">
-        <v>39939.12014397276</v>
+        <v>50931.49295115788</v>
       </c>
     </row>
   </sheetData>
@@ -13016,28 +13016,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>30.27898588563579</v>
+        <v>38.59580128971643</v>
       </c>
       <c r="AB2" t="n">
-        <v>41.42904430320344</v>
+        <v>52.80847805101178</v>
       </c>
       <c r="AC2" t="n">
-        <v>37.47511446100081</v>
+        <v>47.76851102308777</v>
       </c>
       <c r="AD2" t="n">
-        <v>30278.98588563579</v>
+        <v>38595.80128971644</v>
       </c>
       <c r="AE2" t="n">
-        <v>41429.04430320344</v>
+        <v>52808.47805101179</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.126899381507327e-05</v>
+        <v>2.324341899541107e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.268518518518519</v>
       </c>
       <c r="AH2" t="n">
-        <v>37475.11446100081</v>
+        <v>47768.51102308777</v>
       </c>
     </row>
   </sheetData>
@@ -13313,28 +13313,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>39.27709722318536</v>
+        <v>49.10207184735506</v>
       </c>
       <c r="AB2" t="n">
-        <v>53.74065720383475</v>
+        <v>67.18362093205373</v>
       </c>
       <c r="AC2" t="n">
-        <v>48.61172430588975</v>
+        <v>60.77171044311722</v>
       </c>
       <c r="AD2" t="n">
-        <v>39277.09722318536</v>
+        <v>49102.07184735506</v>
       </c>
       <c r="AE2" t="n">
-        <v>53740.65720383475</v>
+        <v>67183.62093205373</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.638277690124373e-06</v>
+        <v>1.517711314070753e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.472993827160494</v>
       </c>
       <c r="AH2" t="n">
-        <v>48611.72430588975</v>
+        <v>60771.71044311722</v>
       </c>
     </row>
     <row r="3">
@@ -13419,28 +13419,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>36.70796739701472</v>
+        <v>46.53294202118401</v>
       </c>
       <c r="AB3" t="n">
-        <v>50.22546043367643</v>
+        <v>63.66842416187962</v>
       </c>
       <c r="AC3" t="n">
-        <v>45.43201298185523</v>
+        <v>57.59199911907775</v>
       </c>
       <c r="AD3" t="n">
-        <v>36707.96739701472</v>
+        <v>46532.94202118401</v>
       </c>
       <c r="AE3" t="n">
-        <v>50225.46043367643</v>
+        <v>63668.42416187962</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.007705818788506e-05</v>
+        <v>1.770499371858267e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.121913580246913</v>
       </c>
       <c r="AH3" t="n">
-        <v>45432.01298185523</v>
+        <v>57591.99911907775</v>
       </c>
     </row>
     <row r="4">
@@ -13525,28 +13525,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>36.39269396729923</v>
+        <v>46.21766859146848</v>
       </c>
       <c r="AB4" t="n">
-        <v>49.79408941825971</v>
+        <v>63.23705314646096</v>
       </c>
       <c r="AC4" t="n">
-        <v>45.04181141071557</v>
+        <v>57.20179754793749</v>
       </c>
       <c r="AD4" t="n">
-        <v>36392.69396729923</v>
+        <v>46217.66859146848</v>
       </c>
       <c r="AE4" t="n">
-        <v>49794.08941825971</v>
+        <v>63237.05314646096</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.023010933577575e-05</v>
+        <v>1.797389854789925e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>3</v>
+        <v>2.087191358024691</v>
       </c>
       <c r="AH4" t="n">
-        <v>45041.81141071558</v>
+        <v>57201.79754793749</v>
       </c>
     </row>
   </sheetData>
@@ -13822,28 +13822,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>42.93419745930205</v>
+        <v>63.36467014956127</v>
       </c>
       <c r="AB2" t="n">
-        <v>58.74446308691021</v>
+        <v>86.69833715055135</v>
       </c>
       <c r="AC2" t="n">
-        <v>53.1379739782791</v>
+        <v>78.42396953480387</v>
       </c>
       <c r="AD2" t="n">
-        <v>42934.19745930205</v>
+        <v>63364.67014956127</v>
       </c>
       <c r="AE2" t="n">
-        <v>58744.46308691021</v>
+        <v>86698.33715055135</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.504331369072565e-06</v>
+        <v>1.283157034044953e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.743055555555556</v>
       </c>
       <c r="AH2" t="n">
-        <v>53137.9739782791</v>
+        <v>78423.96953480388</v>
       </c>
     </row>
     <row r="3">
@@ -13928,28 +13928,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>39.66258555649564</v>
+        <v>49.83524098289358</v>
       </c>
       <c r="AB3" t="n">
-        <v>54.26809934801233</v>
+        <v>68.18677528843648</v>
       </c>
       <c r="AC3" t="n">
-        <v>49.0888281120983</v>
+        <v>61.6791251556631</v>
       </c>
       <c r="AD3" t="n">
-        <v>39662.58555649564</v>
+        <v>49835.24098289358</v>
       </c>
       <c r="AE3" t="n">
-        <v>54268.09934801234</v>
+        <v>68186.77528843647</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.938613229322658e-06</v>
+        <v>1.528403248167082e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.303240740740741</v>
       </c>
       <c r="AH3" t="n">
-        <v>49088.8281120983</v>
+        <v>61679.1251556631</v>
       </c>
     </row>
     <row r="4">
@@ -14034,28 +14034,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>38.2474645665153</v>
+        <v>48.42011999291301</v>
       </c>
       <c r="AB4" t="n">
-        <v>52.33186837879866</v>
+        <v>66.2505443192141</v>
       </c>
       <c r="AC4" t="n">
-        <v>47.33738830906339</v>
+        <v>59.92768535262546</v>
       </c>
       <c r="AD4" t="n">
-        <v>38247.4645665153</v>
+        <v>48420.11999291301</v>
       </c>
       <c r="AE4" t="n">
-        <v>52331.86837879866</v>
+        <v>66250.5443192141</v>
       </c>
       <c r="AF4" t="n">
-        <v>9.590899211170671e-06</v>
+        <v>1.639936881831855e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>3</v>
+        <v>2.14891975308642</v>
       </c>
       <c r="AH4" t="n">
-        <v>47337.38830906338</v>
+        <v>59927.68535262546</v>
       </c>
     </row>
     <row r="5">
@@ -14140,28 +14140,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>38.00129122662763</v>
+        <v>48.1739466530253</v>
       </c>
       <c r="AB5" t="n">
-        <v>51.99504315476471</v>
+        <v>65.91371909517864</v>
       </c>
       <c r="AC5" t="n">
-        <v>47.03270921167306</v>
+        <v>59.62300625523466</v>
       </c>
       <c r="AD5" t="n">
-        <v>38001.29122662763</v>
+        <v>48173.9466530253</v>
       </c>
       <c r="AE5" t="n">
-        <v>51995.04315476471</v>
+        <v>65913.71909517863</v>
       </c>
       <c r="AF5" t="n">
-        <v>9.69002319384594e-06</v>
+        <v>1.656885978207917e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>3</v>
+        <v>2.125771604938271</v>
       </c>
       <c r="AH5" t="n">
-        <v>47032.70921167306</v>
+        <v>59623.00625523466</v>
       </c>
     </row>
   </sheetData>
@@ -14437,28 +14437,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>29.45177521610239</v>
+        <v>37.67504453741986</v>
       </c>
       <c r="AB2" t="n">
-        <v>40.29721817119419</v>
+        <v>51.5486580416047</v>
       </c>
       <c r="AC2" t="n">
-        <v>36.45130822649921</v>
+        <v>46.62892646720626</v>
       </c>
       <c r="AD2" t="n">
-        <v>29451.77521610239</v>
+        <v>37675.04453741986</v>
       </c>
       <c r="AE2" t="n">
-        <v>40297.21817119419</v>
+        <v>51548.65804160469</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.047947228924988e-05</v>
+        <v>2.246233586083962e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.523148148148148</v>
       </c>
       <c r="AH2" t="n">
-        <v>36451.3082264992</v>
+        <v>46628.92646720626</v>
       </c>
     </row>
   </sheetData>
@@ -14734,28 +14734,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>34.70542301387993</v>
+        <v>43.99841564294093</v>
       </c>
       <c r="AB2" t="n">
-        <v>47.48549086266163</v>
+        <v>60.20057335575689</v>
       </c>
       <c r="AC2" t="n">
-        <v>42.95354226111849</v>
+        <v>54.45511512673111</v>
       </c>
       <c r="AD2" t="n">
-        <v>34705.42301387993</v>
+        <v>43998.41564294093</v>
       </c>
       <c r="AE2" t="n">
-        <v>47485.49086266164</v>
+        <v>60200.5733557569</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.050198947484708e-05</v>
+        <v>1.934920709177831e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.160493827160494</v>
       </c>
       <c r="AH2" t="n">
-        <v>42953.54226111848</v>
+        <v>54455.11512673111</v>
       </c>
     </row>
     <row r="3">
@@ -14840,28 +14840,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>33.87048441969191</v>
+        <v>43.16347704875278</v>
       </c>
       <c r="AB3" t="n">
-        <v>46.34309104320802</v>
+        <v>59.05817353629814</v>
       </c>
       <c r="AC3" t="n">
-        <v>41.9201714770619</v>
+        <v>53.42174434267292</v>
       </c>
       <c r="AD3" t="n">
-        <v>33870.48441969191</v>
+        <v>43163.47704875278</v>
       </c>
       <c r="AE3" t="n">
-        <v>46343.09104320802</v>
+        <v>59058.17353629814</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.120068376235258e-05</v>
+        <v>2.063650417916977e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.025462962962963</v>
       </c>
       <c r="AH3" t="n">
-        <v>41920.1714770619</v>
+        <v>53421.74434267292</v>
       </c>
     </row>
   </sheetData>
@@ -15137,28 +15137,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>37.98228144892439</v>
+        <v>47.61079434380888</v>
       </c>
       <c r="AB2" t="n">
-        <v>51.96903313825907</v>
+        <v>65.14318926118268</v>
       </c>
       <c r="AC2" t="n">
-        <v>47.00918155463734</v>
+        <v>58.92601470714962</v>
       </c>
       <c r="AD2" t="n">
-        <v>37982.28144892439</v>
+        <v>47610.79434380888</v>
       </c>
       <c r="AE2" t="n">
-        <v>51969.03313825907</v>
+        <v>65143.18926118268</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.058458546115172e-06</v>
+        <v>1.61822751219054e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.411265432098765</v>
       </c>
       <c r="AH2" t="n">
-        <v>47009.18155463734</v>
+        <v>58926.01470714962</v>
       </c>
     </row>
     <row r="3">
@@ -15243,28 +15243,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>35.52239317180513</v>
+        <v>45.15090606668924</v>
       </c>
       <c r="AB3" t="n">
-        <v>48.60330547490914</v>
+        <v>61.77746159781763</v>
       </c>
       <c r="AC3" t="n">
-        <v>43.96467421563907</v>
+        <v>55.88150736814661</v>
       </c>
       <c r="AD3" t="n">
-        <v>35522.39317180513</v>
+        <v>45150.90606668924</v>
       </c>
       <c r="AE3" t="n">
-        <v>48603.30547490914</v>
+        <v>61777.46159781763</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.050691310303821e-05</v>
+        <v>1.876983348212535e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.079475308641975</v>
       </c>
       <c r="AH3" t="n">
-        <v>43964.67421563907</v>
+        <v>55881.50736814661</v>
       </c>
     </row>
     <row r="4">
@@ -15349,28 +15349,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>35.41931325191339</v>
+        <v>45.04782614679748</v>
       </c>
       <c r="AB4" t="n">
-        <v>48.46226698094883</v>
+        <v>61.63642310385669</v>
       </c>
       <c r="AC4" t="n">
-        <v>43.83709623759314</v>
+        <v>55.75392939010048</v>
       </c>
       <c r="AD4" t="n">
-        <v>35419.31325191339</v>
+        <v>45047.82614679748</v>
       </c>
       <c r="AE4" t="n">
-        <v>48462.26698094884</v>
+        <v>61636.42310385669</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.06385650626882e-05</v>
+        <v>1.900502010030641e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>3</v>
+        <v>2.05246913580247</v>
       </c>
       <c r="AH4" t="n">
-        <v>43837.09623759314</v>
+        <v>55753.92939010048</v>
       </c>
     </row>
   </sheetData>
